--- a/test_data/email_info.xlsx
+++ b/test_data/email_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sender" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>服务提供商</t>
   </si>
@@ -29,22 +29,25 @@
     <t>smtp.qq.com</t>
   </si>
   <si>
-    <t>2929987400@qq.com</t>
+    <t>29299****@qq.com</t>
   </si>
   <si>
-    <t>pvodxdewswnadhad</t>
+    <t>pvodx******d</t>
   </si>
   <si>
     <t>收件人邮箱</t>
   </si>
   <si>
-    <t>1975931445@qq.com</t>
+    <t>29299***@qq.com</t>
   </si>
   <si>
-    <t>object_ycm@163.com</t>
+    <t>197593***@qq.com</t>
   </si>
   <si>
-    <t>object_ycm@sina.com</t>
+    <t>obj****m@163.com</t>
+  </si>
+  <si>
+    <t>obj*****@sina.com</t>
   </si>
 </sst>
 </file>
@@ -53,9 +56,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +84,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -89,33 +100,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -124,6 +128,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -133,15 +161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,9 +175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,23 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +222,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +413,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,21 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,20 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,23 +499,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,16 +533,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,112 +554,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +992,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD19"/>
+      <selection activeCell="A3" sqref="$A3:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1022,7 +1025,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="2929987400@qq.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="29299****@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD22"/>
+      <selection activeCell="A6" sqref="$A6:$XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1050,30 +1053,30 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="2929987400@qq.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="1975931445@qq.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="object_ycm@163.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="object_ycm@sina.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="29299***@qq.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="197593***@qq.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="obj****m@163.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="obj*****@sina.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
